--- a/Apresentação/cronograma.xlsx
+++ b/Apresentação/cronograma.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Criando rotas</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Criando um menu</t>
   </si>
   <si>
-    <t>Trabalhando com Core.module.forRoot()</t>
-  </si>
-  <si>
     <t>Realizando um CRUD</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Entendendo Observables e Promises</t>
   </si>
   <si>
-    <t>Entendendo Subscribes e Emiters</t>
-  </si>
-  <si>
     <t>Explorando PrimeNG</t>
   </si>
   <si>
@@ -121,6 +115,9 @@
   </si>
   <si>
     <t>Aula 1</t>
+  </si>
+  <si>
+    <t>Trabalhando com Shared.module</t>
   </si>
 </sst>
 </file>
@@ -508,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D21"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,29 +522,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5">
-        <f>SUM(B2:B26)/(COUNTA(B2:B27)*10)</f>
-        <v>0.69230769230769229</v>
+        <f>SUM(B2:B25)/(COUNTA(B2:B26)*10)</f>
+        <v>0.76</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -557,16 +554,16 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(D2:D27)</f>
+        <f>SUM(D2:D26)</f>
         <v>1.8749999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -574,16 +571,16 @@
       <c r="C3" s="3"/>
       <c r="E3" s="7"/>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4">
-        <f>SUM(E2:E27)</f>
+        <f>SUM(E2:E26)</f>
         <v>7.3495370370370381E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -593,7 +590,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
@@ -601,16 +598,16 @@
       <c r="C5" s="3"/>
       <c r="E5" s="7"/>
       <c r="H5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <f>6500/168</f>
-        <v>38.69047619047619</v>
+        <f>6000/168</f>
+        <v>35.714285714285715</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
@@ -621,13 +618,13 @@
       </c>
       <c r="E6" s="7"/>
       <c r="I6">
-        <f>30*40</f>
-        <v>1200</v>
+        <f>35*40</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
@@ -637,7 +634,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>10</v>
@@ -649,7 +646,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>10</v>
@@ -664,7 +661,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>10</v>
@@ -677,7 +674,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -690,7 +687,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -703,7 +700,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>
@@ -716,7 +713,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3">
         <v>10</v>
@@ -731,7 +728,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>10</v>
@@ -747,47 +744,47 @@
         <v>18</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3.4722222222222224E-4</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="4">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="E17" s="4">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="E17" s="8">
         <v>3.4722222222222224E-4</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D18" s="4">
         <v>3.4722222222222224E-4</v>
       </c>
-      <c r="E18" s="8">
-        <v>3.4722222222222224E-4</v>
-      </c>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -796,135 +793,124 @@
       <c r="B19" s="3">
         <v>10</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="4">
-        <v>3.4722222222222224E-4</v>
+        <v>5.7870370370370366E-5</v>
       </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3">
         <v>10</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="4">
-        <v>5.7870370370370366E-5</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>3.4722222222222224E-4</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
         <v>0</v>
-      </c>
-      <c r="B21" s="3">
-        <v>10</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3.4722222222222224E-4</v>
-      </c>
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="4">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="E22" s="4">
         <v>6.9444444444444447E-4</v>
       </c>
-      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="4">
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="E23" s="4">
-        <v>6.9444444444444447E-4</v>
+        <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="4">
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="E24" s="4">
-        <v>1.3888888888888889E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
+      <c r="A25" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="4">
-        <v>2.7777777777777779E-3</v>
+        <v>3.4722222222222224E-4</v>
       </c>
       <c r="E25" s="4">
-        <v>6.9444444444444447E-4</v>
+        <v>5.7870370370370366E-5</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D26" s="4">
-        <v>3.4722222222222224E-4</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="E26" s="4">
-        <v>5.7870370370370366E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2.7777777777777779E-3</v>
-      </c>
-      <c r="E27" s="4">
         <v>1.3888888888888889E-3</v>
       </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
@@ -946,17 +932,13 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -973,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Apresentação/cronograma.xlsx
+++ b/Apresentação/cronograma.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
       </c>
       <c r="H1" s="5">
         <f>SUM(B2:B25)/(COUNTA(B2:B26)*10)</f>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -819,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4">

--- a/Apresentação/cronograma.xlsx
+++ b/Apresentação/cronograma.xlsx
@@ -508,7 +508,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +538,7 @@
       </c>
       <c r="H1" s="5">
         <f>SUM(B2:B25)/(COUNTA(B2:B26)*10)</f>
-        <v>0.8</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="I1" s="5"/>
     </row>
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>24</v>

--- a/Apresentação/cronograma.xlsx
+++ b/Apresentação/cronograma.xlsx
@@ -24,9 +24,6 @@
     <t>Criando um menu</t>
   </si>
   <si>
-    <t>Realizando um CRUD</t>
-  </si>
-  <si>
     <t>Inrodução</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Trabalhando com Shared.module</t>
+  </si>
+  <si>
+    <t>Realizando um CRUD - exercicio</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="M17" sqref="L17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,29 +522,29 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="5">
         <f>SUM(B2:B25)/(COUNTA(B2:B26)*10)</f>
-        <v>0.83199999999999996</v>
+        <v>0.88</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -554,7 +554,7 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4">
         <f>SUM(D2:D26)</f>
@@ -563,7 +563,7 @@
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -571,7 +571,7 @@
       <c r="C3" s="3"/>
       <c r="E3" s="7"/>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <f>SUM(E2:E26)</f>
@@ -580,7 +580,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>10</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>10</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>10</v>
@@ -674,7 +674,7 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="3">
         <v>10</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>10</v>
@@ -741,13 +741,13 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="4">
         <v>6.9444444444444447E-4</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4">
         <v>3.4722222222222224E-4</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>10</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="4">
         <v>2.7777777777777779E-3</v>
@@ -846,13 +846,13 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
         <v>2.7777777777777779E-3</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4">
@@ -878,7 +878,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -893,13 +893,13 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="4">
         <v>2.7777777777777779E-3</v>
@@ -955,7 +955,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
